--- a/FileGunBasin/9 August-04 StormBasin/150 claude code site building tenants/150 claude code site building tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/150 claude code site building tenants/150 claude code site building tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/150 claude code site building tenants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F560E10D-9C70-9C49-8A2D-331C0761C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474321D-E705-C14D-B92C-B962292FAAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{31AB0337-D345-5F4B-833A-8EFA0B6F2C51}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I126" sqref="I126"/>
+      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/150 claude code site building tenants/150 claude code site building tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/150 claude code site building tenants/150 claude code site building tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/150 claude code site building tenants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474321D-E705-C14D-B92C-B962292FAAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D04E89-6860-564E-B157-DAA5C579DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{31AB0337-D345-5F4B-833A-8EFA0B6F2C51}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
+      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
